--- a/Windsor-20250922.xlsx
+++ b/Windsor-20250922.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutik\Downloads\TheProteinCult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6F2218-D296-4DA8-B571-7EE28932C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B988A5-21FE-4508-9AEF-0F69292B3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ADFCAE73-49BC-4407-B3DF-97E0C34A612D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADFCAE73-49BC-4407-B3DF-97E0C34A612D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Food Items</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>1/3 cup</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>1 each</t>
@@ -580,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6A9427-0657-4EF6-9D58-E591A1A64027}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>82</v>
@@ -733,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>202</v>
@@ -748,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>221</v>
@@ -779,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>120</v>
@@ -802,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>51</v>
@@ -825,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>103</v>
@@ -848,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>140</v>
@@ -871,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>152</v>
@@ -886,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -917,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>372</v>
@@ -932,7 +929,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -940,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -963,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1009,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -1032,7 +1029,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1055,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>94</v>
@@ -1078,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1101,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>160</v>
@@ -1124,7 +1121,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>96</v>
@@ -1147,7 +1144,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>249</v>
@@ -1170,7 +1167,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>70</v>
@@ -1193,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>80</v>
@@ -1216,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>18</v>
@@ -1239,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -1262,7 +1259,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>214</v>
@@ -1285,7 +1282,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>361</v>
@@ -1308,7 +1305,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>111</v>
@@ -1354,7 +1351,7 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>271</v>

--- a/Windsor-20250922.xlsx
+++ b/Windsor-20250922.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutik\Downloads\TheProteinCult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B988A5-21FE-4508-9AEF-0F69292B3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D79177-CA6C-4EE7-8FD6-FE6510D5F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADFCAE73-49BC-4407-B3DF-97E0C34A612D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ADFCAE73-49BC-4407-B3DF-97E0C34A612D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
   <si>
     <t>Food Items</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>1 piece</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Eggs</t>
   </si>
 </sst>
 </file>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6A9427-0657-4EF6-9D58-E591A1A64027}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +596,7 @@
     <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,13 +613,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -627,13 +645,22 @@
         <v>7</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -650,13 +677,22 @@
         <v>3</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -673,13 +709,22 @@
         <v>31</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -696,13 +741,22 @@
         <v>37</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -721,11 +775,20 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -742,13 +805,22 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -765,13 +837,22 @@
         <v>16</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -788,13 +869,22 @@
         <v>23</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -811,13 +901,22 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -834,13 +933,22 @@
         <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -857,13 +965,22 @@
         <v>28</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1.5</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -880,13 +997,22 @@
         <v>21</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -903,13 +1029,22 @@
         <v>8</v>
       </c>
       <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>3.5</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -926,13 +1061,22 @@
         <v>13</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -949,13 +1093,22 @@
         <v>2</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3.5</v>
       </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -974,11 +1127,20 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -997,11 +1159,20 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1020,11 +1191,20 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1043,11 +1223,20 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1064,13 +1253,22 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1089,11 +1287,20 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1110,13 +1317,22 @@
         <v>31</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1.5</v>
       </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1135,11 +1351,20 @@
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1156,13 +1381,22 @@
         <v>12</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1179,13 +1413,22 @@
         <v>12</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>1.5</v>
       </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1202,13 +1445,22 @@
         <v>16</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>0.5</v>
       </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1227,11 +1479,20 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1248,13 +1509,22 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1271,13 +1541,22 @@
         <v>33</v>
       </c>
       <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
         <v>8</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1294,13 +1573,22 @@
         <v>55</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1317,13 +1605,22 @@
         <v>18</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1340,13 +1637,22 @@
         <v>35</v>
       </c>
       <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1363,9 +1669,18 @@
         <v>20</v>
       </c>
       <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
         <v>16</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
         <v>11</v>
       </c>
     </row>
